--- a/biology/Botanique/Jardin_du_Prince_d'Anglona/Jardin_du_Prince_d'Anglona.xlsx
+++ b/biology/Botanique/Jardin_du_Prince_d'Anglona/Jardin_du_Prince_d'Anglona.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jardin_du_Prince_d%27Anglona</t>
+          <t>Jardin_du_Prince_d'Anglona</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Jardin du Prince d'Anglona se trouve sur la Place de la Paja, dans la zone nommée Madrid de los Austrias, plus concrètement dans le quartier de La Latina, l'un des principaux foyers touristiques de Madrid. C'est l'une des rares expositions de jardins de nobles du XVIIIe siècle qui ont été conservées dans la capitale. Il appartient à la Municipalité de Madrid qui se charge de sa gestion, de son maintien et de sa conservation. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jardin_du_Prince_d%27Anglona</t>
+          <t>Jardin_du_Prince_d'Anglona</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'histoire de ce jardin est liée à celle du palais du Prince d'Anglona, édifice construit vers 1530 en tant que résidence de Francisco de Vargas, conseiller des Rois Catholiques et de Carlos I bien que son aspect actuel corresponde à une rénovation effectuée en 1802.
 Le jardin fut créé au XVIIIe siècle, aux côtés de la maison du palais. Il doit son existence à un dessin de 1761 de Nicolas Chalmandrier, qui prévoyait une petite zone de loisir au style néoclassique, avec des touches caractéristiques des jardins hispano-arabes. Il fut l'objet d'une transformation au début du XXe siècle.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jardin_du_Prince_d%27Anglona</t>
+          <t>Jardin_du_Prince_d'Anglona</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin du Prince d'Anglona se situe sur un terre-plein artificiel, qui franchit le niveau de dénivelé important existant entre la place de la Paja et la rue de Segovie.
 Il occupe une superficie d'environ 500 m2, dont le périmètre est fermé par une mur de briques, recouvert à certains endroits par des plantes.
